--- a/Data/Metadata/Angiosperms/powo/Scrophulariaceae.xlsx
+++ b/Data/Metadata/Angiosperms/powo/Scrophulariaceae.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -872,12 +872,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>manoel-felixii</t>
+          <t>xukuruorum</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>L.P.Félix &amp; E.M.Almeida</t>
+          <t>E.M.Almeida, Christenh. &amp; L.P.Felix</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -890,7 +890,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ameroglossum_manoel-felixii</t>
+          <t>Ameroglossum_xukuruorum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77157265-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:77216331-1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77157265-1</t>
+          <t>urn:lsid:ipni.org:names:77216331-1</t>
         </is>
       </c>
     </row>
@@ -922,17 +922,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ameroglossum</t>
+          <t>Bontia</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pernambucense</t>
+          <t>daphnoides</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Eb.Fisch., S.Vogel &amp; A.V.Lopes</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -945,7 +945,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ameroglossum_pernambucense</t>
+          <t>Bontia_daphnoides</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -960,12 +960,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:319189-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:319112-2</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:319189-2</t>
+          <t>urn:lsid:ipni.org:names:319112-2</t>
         </is>
       </c>
     </row>
@@ -977,17 +977,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ameroglossum</t>
+          <t>Buddleja</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>xukuruorum</t>
+          <t>madagascariensis</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>E.M.Almeida, Christenh. &amp; L.P.Felix</t>
+          <t>Lam.</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ameroglossum_xukuruorum</t>
+          <t>Buddleja_madagascariensis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:77216331-1</t>
+          <t>/taxon/urn:lsid:ipni.org:names:545812-1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:77216331-1</t>
+          <t>urn:lsid:ipni.org:names:545812-1</t>
         </is>
       </c>
     </row>
@@ -1032,17 +1032,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bontia</t>
+          <t>Buddleja</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>daphnoides</t>
+          <t>davidii</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Franch.</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bontia_daphnoides</t>
+          <t>Buddleja_davidii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1070,120 +1070,10 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:319112-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:545734-1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
-        <is>
-          <t>urn:lsid:ipni.org:names:319112-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Scrophulariaceae</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Buddleja</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>madagascariensis</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Lam.</t>
-        </is>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Buddleja_madagascariensis</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>/taxon/urn:lsid:ipni.org:names:545812-1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>urn:lsid:ipni.org:names:545812-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Scrophulariaceae</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Buddleja</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>davidii</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Franch.</t>
-        </is>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Buddleja_davidii</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>/taxon/urn:lsid:ipni.org:names:545734-1</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>urn:lsid:ipni.org:names:545734-1</t>
         </is>
